--- a/tutorialsninja/src/test/resources/com/atmecs/application/testdata/testdata.xlsx
+++ b/tutorialsninja/src/test/resources/com/atmecs/application/testdata/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12510" windowHeight="3480" activeTab="1"/>
+    <workbookView windowWidth="12510" windowHeight="3555"/>
   </bookViews>
   <sheets>
     <sheet name="HomePageData" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <t>$1,202.00</t>
   </si>
   <si>
-    <t>$3606.00</t>
+    <t>$3,606.00</t>
   </si>
   <si>
     <t>Ex Tax: $101.00</t>
@@ -75,7 +75,7 @@
     <t>Ex Tax: $1,000.00</t>
   </si>
   <si>
-    <t>$3852.40</t>
+    <t>$3,852.40</t>
   </si>
   <si>
     <t>iPhone is a revolutionary new mobile phone that allows you to make a call by simply tapping a name or number in your address book, a favorites list, or a call log. It also automatically syncs all your contacts from a PC, Mac, or Internet service. And it lets you select and listen to voicemail messages in whatever order you want just like email.</t>
@@ -111,7 +111,7 @@
     <t>$14.99</t>
   </si>
   <si>
-    <t>$29.98</t>
+    <t>$194.87</t>
   </si>
 </sst>
 </file>
@@ -119,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -139,9 +139,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,24 +170,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,20 +193,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -208,6 +201,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -216,9 +254,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,51 +271,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,6 +292,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -304,13 +310,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,19 +400,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,19 +424,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,109 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,15 +501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -529,7 +520,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,21 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -575,11 +577,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,148 +588,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,8 +1064,8 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1148,7 +1148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="4:6">
+    <row r="5" ht="36" customHeight="1" spans="4:6">
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1172,8 +1172,8 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
